--- a/Andhi Khola Final results/AndhiKhola_Flood Analysis.xlsx
+++ b/Andhi Khola Final results/AndhiKhola_Flood Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\01Andhikhola_working\Final results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andhi Khola and Jhimruk\01Andhikhola_working\Andhikhola\Andhi Khola Final results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -975,6 +975,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,15 +997,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2380,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -2445,13 +2445,13 @@
       </c>
       <c r="F4" s="44">
         <f ca="1">TODAY()</f>
-        <v>44959</v>
+        <v>44969</v>
       </c>
       <c r="G4" s="43"/>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="42"/>
       <c r="K4" s="45"/>
     </row>
@@ -2469,10 +2469,10 @@
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="43"/>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="80"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="46"/>
       <c r="K5" s="47"/>
     </row>
@@ -2486,10 +2486,10 @@
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="43"/>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="80"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="42"/>
       <c r="K6" s="38"/>
     </row>
@@ -2995,11 +2995,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -3069,42 +3069,42 @@
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79" t="s">
+      <c r="C44" s="81"/>
+      <c r="D44" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79" t="s">
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79" t="s">
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="79"/>
+      <c r="K44" s="82"/>
     </row>
     <row r="45" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="76"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="16" t="s">
         <v>17</v>
       </c>
@@ -3630,16 +3630,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D43:K43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="82" orientation="portrait" r:id="rId1"/>

--- a/Andhi Khola Final results/AndhiKhola_Flood Analysis.xlsx
+++ b/Andhi Khola Final results/AndhiKhola_Flood Analysis.xlsx
@@ -975,6 +975,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -982,21 +997,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2380,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -2445,13 +2445,13 @@
       </c>
       <c r="F4" s="44">
         <f ca="1">TODAY()</f>
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="G4" s="43"/>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="75"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="42"/>
       <c r="K4" s="45"/>
     </row>
@@ -2469,10 +2469,10 @@
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="43"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="75"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="46"/>
       <c r="K5" s="47"/>
     </row>
@@ -2486,10 +2486,10 @@
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="43"/>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="75"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="42"/>
       <c r="K6" s="38"/>
     </row>
@@ -2995,11 +2995,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -3069,42 +3069,42 @@
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="82" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82" t="s">
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82" t="s">
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="82"/>
+      <c r="K44" s="79"/>
     </row>
     <row r="45" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="79"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="16" t="s">
         <v>17</v>
       </c>
@@ -3630,16 +3630,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D43:K43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D43:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="82" orientation="portrait" r:id="rId1"/>

--- a/Andhi Khola Final results/AndhiKhola_Flood Analysis.xlsx
+++ b/Andhi Khola Final results/AndhiKhola_Flood Analysis.xlsx
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Flood flow JHC'!$A$1:$K$56</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Flood flow JHC'!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
   <si>
     <t>Year</t>
   </si>
@@ -298,6 +299,9 @@
   </si>
   <si>
     <t>Log Pearson Type III</t>
+  </si>
+  <si>
+    <t>2/15/2023</t>
   </si>
 </sst>
 </file>
@@ -825,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
@@ -895,9 +899,6 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,9 +921,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -975,6 +973,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,15 +997,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,6 +1032,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2016,8 +2023,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>529167</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>24130</xdr:rowOff>
     </xdr:to>
@@ -2085,15 +2092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>306917</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>201084</xdr:colOff>
+      <xdr:colOff>370417</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>137584</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2380,153 +2387,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="28" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="28"/>
+    <col min="4" max="5" width="9.140625" style="28"/>
+    <col min="6" max="6" width="7.140625" style="28" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="28"/>
+    <col min="9" max="9" width="7.7109375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="28" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="42" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="44">
-        <f ca="1">TODAY()</f>
-        <v>44970</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="80" t="s">
+      <c r="F4" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="45"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="46" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="80" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="40" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="80" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="38"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="38"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="42" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="38"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2537,11 +2549,11 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="51" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="1"/>
@@ -2556,46 +2568,46 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="54">
+      <c r="B13" s="46"/>
+      <c r="C13" s="52">
         <v>444</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -2603,18 +2615,18 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="54">
+      <c r="B14" s="46"/>
+      <c r="C14" s="52">
         <v>0</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -2648,7 +2660,7 @@
       <c r="A18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="54">
         <v>677</v>
       </c>
       <c r="C18" s="31">
@@ -2668,7 +2680,7 @@
       <c r="A19" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="54">
         <v>384</v>
       </c>
       <c r="C19" s="31">
@@ -2688,7 +2700,7 @@
       <c r="A20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="54">
         <v>271.95999999999998</v>
       </c>
       <c r="C20" s="31">
@@ -2708,7 +2720,7 @@
       <c r="A21" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="54">
         <v>352.71</v>
       </c>
       <c r="C21" s="31">
@@ -2728,7 +2740,7 @@
       <c r="A22" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="54">
         <v>608.23</v>
       </c>
       <c r="C22" s="31">
@@ -2748,7 +2760,7 @@
       <c r="A23" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="54">
         <v>605.34096113561941</v>
       </c>
       <c r="C23" s="31">
@@ -2768,7 +2780,7 @@
       <c r="A24" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="56">
+      <c r="B24" s="54">
         <v>457.35379101939577</v>
       </c>
       <c r="C24" s="31">
@@ -2788,7 +2800,7 @@
       <c r="A25" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="54">
         <v>304.13130211547116</v>
       </c>
       <c r="C25" s="31">
@@ -2808,7 +2820,7 @@
       <c r="A26" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26" s="54">
         <v>355.2005861549826</v>
       </c>
       <c r="C26" s="31">
@@ -2828,7 +2840,7 @@
       <c r="A27" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="54">
         <v>342.97479709870277</v>
       </c>
       <c r="C27" s="31">
@@ -2848,7 +2860,7 @@
       <c r="A28" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="54">
         <v>444.4478028878425</v>
       </c>
       <c r="C28" s="31">
@@ -2868,7 +2880,7 @@
       <c r="A29" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="54">
         <v>833.36258669458846</v>
       </c>
       <c r="C29" s="31">
@@ -2888,7 +2900,7 @@
       <c r="A30" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="54">
         <v>146.65182172114402</v>
       </c>
       <c r="C30" s="31">
@@ -2908,7 +2920,7 @@
       <c r="A31" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="54">
         <v>147.06541642943768</v>
       </c>
       <c r="C31" s="31">
@@ -2928,7 +2940,7 @@
       <c r="A32" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="54">
         <v>185.01522320413784</v>
       </c>
       <c r="C32" s="31">
@@ -2948,7 +2960,7 @@
       <c r="A33" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="56">
+      <c r="B33" s="54">
         <v>185.01522320413784</v>
       </c>
       <c r="C33" s="31">
@@ -2968,7 +2980,7 @@
       <c r="A34" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="54">
         <v>136.16135268845147</v>
       </c>
       <c r="C34" s="31">
@@ -2995,11 +3007,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -3069,42 +3081,42 @@
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79" t="s">
+      <c r="C44" s="79"/>
+      <c r="D44" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79" t="s">
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79" t="s">
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="79"/>
+      <c r="K44" s="80"/>
     </row>
     <row r="45" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="76"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="16" t="s">
         <v>17</v>
       </c>
@@ -3156,7 +3168,7 @@
         <f>$C$38+D46*$C$39</f>
         <v>1.8954324750276874</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="93">
         <f>(10)^E46</f>
         <v>78.601797000497271</v>
       </c>
@@ -3168,7 +3180,7 @@
         <f>$C$38+G46*$C$39</f>
         <v>1.8650025101891017</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="93">
         <f>(10)^H46</f>
         <v>73.282876882125692</v>
       </c>
@@ -3195,7 +3207,7 @@
         <f t="shared" ref="E47:E56" si="4">$C$38+D47*$C$39</f>
         <v>2.5154594588612675</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="93">
         <f>(10)^E47</f>
         <v>327.68718596806769</v>
       </c>
@@ -3207,7 +3219,7 @@
         <f t="shared" ref="H47:H56" si="6">$C$38+G47*$C$39</f>
         <v>2.5211587902547454</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="93">
         <f>(10)^H47</f>
         <v>332.01582967090218</v>
       </c>
@@ -3215,7 +3227,7 @@
         <f t="shared" ref="J47:J56" si="7">-LN(LN(A47/(A47-1)))</f>
         <v>0.36651292058166435</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="93">
         <f>B$38-(0.577*SQRT(6)*B$39/PI())+(SQRT(6)*B$39/PI())*J47</f>
         <v>345.01350147988819</v>
       </c>
@@ -3240,7 +3252,7 @@
         <f t="shared" si="4"/>
         <v>2.5593573646649461</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="93">
         <f>(10)^E48</f>
         <v>362.54119728570771</v>
       </c>
@@ -3252,7 +3264,7 @@
         <f t="shared" si="6"/>
         <v>2.5648290110499476</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="93">
         <f>(10)^H48</f>
         <v>367.13772381974104</v>
       </c>
@@ -3260,7 +3272,7 @@
         <f t="shared" si="7"/>
         <v>0.57858831412193601</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="93">
         <f t="shared" ref="K48:K56" si="8">B$38-(0.577*SQRT(6)*B$39/PI())+(SQRT(6)*B$39/PI())*J48</f>
         <v>378.87838384486889</v>
       </c>
@@ -3285,7 +3297,7 @@
         <f t="shared" si="4"/>
         <v>2.7228608713455755</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="93">
         <f>(10)^E49</f>
         <v>528.27598851127607</v>
       </c>
@@ -3297,7 +3309,7 @@
         <f t="shared" si="6"/>
         <v>2.7243258399769799</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="93">
         <f>(10)^H49</f>
         <v>530.06098586143492</v>
       </c>
@@ -3305,7 +3317,7 @@
         <f t="shared" si="7"/>
         <v>1.4999399867595156</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="93">
         <f t="shared" si="8"/>
         <v>526.0027884718719</v>
       </c>
@@ -3330,7 +3342,7 @@
         <f t="shared" si="4"/>
         <v>2.8313784652132368</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="93">
         <f>(10)^E50</f>
         <v>678.23229457271793</v>
       </c>
@@ -3342,7 +3354,7 @@
         <f t="shared" si="6"/>
         <v>2.8274620616183022</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="93">
         <f>(10)^H50</f>
         <v>672.14359053469445</v>
       </c>
@@ -3350,7 +3362,7 @@
         <f t="shared" si="7"/>
         <v>2.2503673273124449</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="93">
         <f t="shared" si="8"/>
         <v>645.83344485806151</v>
       </c>
@@ -3375,7 +3387,7 @@
         <f t="shared" si="4"/>
         <v>2.9209690561222192</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="93">
         <f t="shared" ref="F51:F56" si="11">(10)^E51</f>
         <v>833.62178619128713</v>
       </c>
@@ -3387,7 +3399,7 @@
         <f t="shared" si="6"/>
         <v>2.9109920364948927</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="93">
         <f t="shared" ref="I51:I56" si="12">(10)^H51</f>
         <v>814.68934521200322</v>
       </c>
@@ -3395,7 +3407,7 @@
         <f t="shared" si="7"/>
         <v>2.9701952490421655</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="93">
         <f t="shared" si="8"/>
         <v>760.77788742384428</v>
       </c>
@@ -3420,7 +3432,7 @@
         <f t="shared" si="4"/>
         <v>3.0217729792411676</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="93">
         <f t="shared" si="11"/>
         <v>1051.4121206380519</v>
       </c>
@@ -3432,7 +3444,7 @@
         <f t="shared" si="6"/>
         <v>3.0032442137987219</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="93">
         <f>(10)^H52</f>
         <v>1007.498048970807</v>
       </c>
@@ -3440,7 +3452,7 @@
         <f t="shared" si="7"/>
         <v>3.9019386579358333</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="93">
         <f t="shared" si="8"/>
         <v>909.56167798905369</v>
       </c>
@@ -3465,7 +3477,7 @@
         <f t="shared" si="4"/>
         <v>3.0889620837072624</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="94">
         <f t="shared" si="11"/>
         <v>1227.3320736521355</v>
       </c>
@@ -3477,15 +3489,15 @@
         <f t="shared" si="6"/>
         <v>3.0637229102633103</v>
       </c>
-      <c r="I53" s="35">
+      <c r="I53" s="94">
         <f>(10)^H53</f>
         <v>1158.0382657043008</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="35">
         <f t="shared" si="7"/>
         <v>4.6001492267765736</v>
       </c>
-      <c r="K53" s="35">
+      <c r="K53" s="94">
         <f t="shared" si="8"/>
         <v>1021.0541919722374</v>
       </c>
@@ -3510,7 +3522,7 @@
         <f t="shared" si="4"/>
         <v>3.1504461909172612</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="93">
         <f t="shared" si="11"/>
         <v>1413.9895209264603</v>
       </c>
@@ -3522,7 +3534,7 @@
         <f t="shared" si="6"/>
         <v>3.1183635365316325</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="93">
         <f t="shared" si="12"/>
         <v>1313.2987670257062</v>
       </c>
@@ -3530,7 +3542,7 @@
         <f t="shared" si="7"/>
         <v>5.295812142535044</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="93">
         <f t="shared" si="8"/>
         <v>1132.1398885000926</v>
       </c>
@@ -3555,7 +3567,7 @@
         <f t="shared" si="4"/>
         <v>3.2249490649721722</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="93">
         <f t="shared" si="11"/>
         <v>1678.6071357794933</v>
       </c>
@@ -3567,7 +3579,7 @@
         <f t="shared" si="6"/>
         <v>3.183679849084132</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="93">
         <f t="shared" si="12"/>
         <v>1526.440390105081</v>
       </c>
@@ -3575,7 +3587,7 @@
         <f t="shared" si="7"/>
         <v>6.213607264087516</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="93">
         <f t="shared" si="8"/>
         <v>1278.6963715869695</v>
       </c>
@@ -3600,7 +3612,7 @@
         <f t="shared" si="4"/>
         <v>3.2772063360678243</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="93">
         <f t="shared" si="11"/>
         <v>1893.2428967314434</v>
       </c>
@@ -3612,7 +3624,7 @@
         <f t="shared" si="6"/>
         <v>3.2289126809522148</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="93">
         <f t="shared" si="12"/>
         <v>1693.9971719168091</v>
       </c>
@@ -3620,29 +3632,29 @@
         <f t="shared" si="7"/>
         <v>6.907255070523628</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="93">
         <f t="shared" si="8"/>
         <v>1389.4602889634812</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I57" s="70"/>
+      <c r="I57" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D43:K43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3658,146 +3670,146 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="G1" s="83" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="G1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="82"/>
+      <c r="H2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="70" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="72">
         <v>561</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="72">
         <v>907</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="72">
         <v>1005</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="72">
         <v>1189</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="72">
         <v>328</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="72">
         <v>678</v>
       </c>
-      <c r="J3" s="74">
+      <c r="J3" s="72">
         <v>834</v>
       </c>
-      <c r="K3" s="74">
+      <c r="K3" s="72">
         <v>1227</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="72">
         <v>507</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="72">
         <v>893</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="72">
         <v>1052</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="72">
         <v>1434</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="72">
         <v>332</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="72">
         <v>672</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="72">
         <v>815</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="72">
         <v>1158</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="72">
         <v>516</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="72">
         <v>863</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="72">
         <v>996</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="72">
         <v>1297</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="72">
         <v>345</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="72">
         <v>646</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="72">
         <v>761</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="72">
         <v>1021</v>
       </c>
     </row>
@@ -3835,45 +3847,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="58"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="88" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="31"/>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="91" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="91" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="94"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="60"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="31" t="s">
         <v>17</v>
       </c>
@@ -3901,40 +3913,40 @@
       <c r="J3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="59" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="62">
+      <c r="A4" s="60">
         <v>1</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="55">
         <v>1</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="55">
         <v>0</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="55">
         <v>-2.5155699999999999</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="55">
         <v>1.8954324750276874</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="55">
         <v>78.601797000497271</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="55">
         <v>-2.6390294550849442</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="55">
         <v>1.8650025101891017</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="55">
         <v>73.282876882125692</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="61"/>
       <c r="N4" s="28" t="s">
         <v>12</v>
       </c>
@@ -3952,564 +3964,564 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="62">
+      <c r="A5" s="60">
         <v>2</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="55">
         <v>0.5</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="55">
         <v>1.1774100225154747</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="55">
         <v>-1.6861240179411041E-5</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="55">
         <v>2.5154594588612675</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="55">
         <v>327.68718596806769</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="55">
         <v>2.3106279122278434E-2</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="55">
         <v>2.5211587902547454</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="55">
         <v>332.01582967090218</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="55">
         <v>0.36651292058166435</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="61">
         <v>345.01350147988819</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="71">
+      <c r="O5" s="69">
         <v>327.68718596806769</v>
       </c>
-      <c r="P5" s="71">
+      <c r="P5" s="69">
         <v>678.23229457271793</v>
       </c>
-      <c r="Q5" s="71">
+      <c r="Q5" s="69">
         <v>833.62178619128713</v>
       </c>
-      <c r="R5" s="71">
+      <c r="R5" s="69">
         <v>1227.3320736521355</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="62">
+      <c r="A6" s="60">
         <v>2.33</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="55">
         <v>0.42918454935622319</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="55">
         <v>1.3006677266524369</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="55">
         <v>0.17808428211113303</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="55">
         <v>2.5593573646649461</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="55">
         <v>362.54119728570771</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="55">
         <v>0.20028366632643085</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="55">
         <v>2.5648290110499476</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="55">
         <v>367.13772381974104</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="55">
         <v>0.57858831412193601</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="61">
         <v>378.87838384486889</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="71">
+      <c r="O6" s="69">
         <v>332.01582967090218</v>
       </c>
-      <c r="P6" s="71">
+      <c r="P6" s="69">
         <v>672.14359053469445</v>
       </c>
-      <c r="Q6" s="71">
+      <c r="Q6" s="69">
         <v>814.68934521200322</v>
       </c>
-      <c r="R6" s="71">
+      <c r="R6" s="69">
         <v>1158.0382657043008</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="62">
+      <c r="A7" s="60">
         <v>5</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="55">
         <v>0.2</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="55">
         <v>1.7941225779941015</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="55">
         <v>0.84144534566621687</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="55">
         <v>2.7228608713455755</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="55">
         <v>528.27598851127607</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="55">
         <v>0.84738896833910127</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="55">
         <v>2.7243258399769799</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="55">
         <v>530.06098586143492</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="55">
         <v>1.4999399867595156</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="61">
         <v>526.0027884718719</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="71">
+      <c r="O7" s="69">
         <v>345.01350147988819</v>
       </c>
-      <c r="P7" s="71">
+      <c r="P7" s="69">
         <v>645.83344485806151</v>
       </c>
-      <c r="Q7" s="71">
+      <c r="Q7" s="69">
         <v>760.77788742384428</v>
       </c>
-      <c r="R7" s="71">
+      <c r="R7" s="69">
         <v>1021.0541919722374</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="62">
+      <c r="A8" s="60">
         <v>10</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="55">
         <v>0.1</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="55">
         <v>2.1459660262893472</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="55">
         <v>1.2817193675751226</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="55">
         <v>2.8313784652132368</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="55">
         <v>678.23229457271793</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="55">
         <v>1.2658298633877825</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="55">
         <v>2.8274620616183022</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="55">
         <v>672.14359053469445</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="55">
         <v>2.2503673273124449</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="61">
         <v>645.83344485806151</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="62">
+      <c r="A9" s="60">
         <v>20</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="55">
         <v>0.05</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>2.4477468306808166</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="55">
         <v>1.6452033739823797</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="55">
         <v>2.9209690561222192</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="55">
         <v>833.62178619128713</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="55">
         <v>1.6047249372475587</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="55">
         <v>2.9109920364948927</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="55">
         <v>814.68934521200322</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="55">
         <v>2.9701952490421655</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="61">
         <v>760.77788742384428</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="62">
+      <c r="A10" s="60">
         <v>50</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="55">
         <v>0.02</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="55">
         <v>2.7971496225365371</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="55">
         <v>2.0541817439773808</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="55">
         <v>3.0217729792411676</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="55">
         <v>1051.4121206380519</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="55">
         <v>1.9790074446623702</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="55">
         <v>3.0032442137987219</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="55">
         <v>1007.498048970807</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="55">
         <v>3.9019386579358333</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="61">
         <v>909.56167798905369</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="62">
+      <c r="A11" s="60">
         <v>100</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="55">
         <v>0.01</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="55">
         <v>3.0348542587702929</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="55">
         <v>2.3267791744716506</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="55">
         <v>3.0889620837072624</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="55">
         <v>1227.3320736521355</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="55">
         <v>2.2243796279485628</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="55">
         <v>3.0637229102633103</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="55">
         <v>1158.0382657043008</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="55">
         <v>4.6001492267765736</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="61">
         <v>1021.0541919722374</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="62">
+      <c r="A12" s="60">
         <v>200</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="55">
         <v>3.2552472614374586</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="55">
         <v>2.5762304772515181</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="55">
         <v>3.1504461909172612</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="55">
         <v>1413.9895209264603</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="55">
         <v>2.4460657843529634</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="55">
         <v>3.1183635365316325</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="55">
         <v>1313.2987670257062</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="55">
         <v>5.295812142535044</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="61">
         <v>1132.1398885000926</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="62">
+      <c r="A13" s="60">
         <v>500</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="55">
         <v>2E-3</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="55">
         <v>3.5255093528232742</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="55">
         <v>2.8785010937925581</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="55">
         <v>3.2249490649721722</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="55">
         <v>1678.6071357794933</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="55">
         <v>2.7110649849325279</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="55">
         <v>3.183679849084132</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="55">
         <v>1526.440390105081</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="55">
         <v>6.213607264087516</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="61">
         <v>1278.6963715869695</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="64">
+      <c r="A14" s="62">
         <v>1000</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="63">
         <v>1E-3</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="63">
         <v>3.7169221888498383</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="63">
         <v>3.090517579776618</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="63">
         <v>3.2772063360678243</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="63">
         <v>1893.2428967314434</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="63">
         <v>2.8945821465199524</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="63">
         <v>3.2289126809522148</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="63">
         <v>1693.9971719168091</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="63">
         <v>6.907255070523628</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="64">
         <v>1389.4602889634812</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="68"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="62">
+      <c r="A18" s="60">
         <v>1</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="55">
         <v>78.601797000497271</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="55">
         <v>73.282876882125692</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="61"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="62">
+      <c r="A19" s="60">
         <v>2</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="55">
         <v>327.68718596806769</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="55">
         <v>332.01582967090218</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="61">
         <v>345.01350147988819</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="62">
+      <c r="A20" s="60">
         <v>2.33</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="55">
         <v>362.54119728570771</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="55">
         <v>367.13772381974104</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="61">
         <v>378.87838384486889</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="62">
+      <c r="A21" s="60">
         <v>5</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="55">
         <v>528.27598851127607</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <v>530.06098586143492</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="61">
         <v>526.0027884718719</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="62">
+      <c r="A22" s="60">
         <v>10</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="55">
         <v>678.23229457271793</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="55">
         <v>672.14359053469445</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="61">
         <v>645.83344485806151</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="62">
+      <c r="A23" s="60">
         <v>20</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="55">
         <v>833.62178619128713</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="55">
         <v>814.68934521200322</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="61">
         <v>760.77788742384428</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="62">
+      <c r="A24" s="60">
         <v>50</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="55">
         <v>1051.4121206380519</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <v>1007.498048970807</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="61">
         <v>909.56167798905369</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="62">
+      <c r="A25" s="60">
         <v>100</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="55">
         <v>1227.3320736521355</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="55">
         <v>1158.0382657043008</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="61">
         <v>1021.0541919722374</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="62">
+      <c r="A26" s="60">
         <v>200</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="55">
         <v>1413.9895209264603</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="55">
         <v>1313.2987670257062</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="61">
         <v>1132.1398885000926</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="62">
+      <c r="A27" s="60">
         <v>500</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="55">
         <v>1678.6071357794933</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="55">
         <v>1526.440390105081</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="61">
         <v>1278.6963715869695</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="64">
+      <c r="A28" s="62">
         <v>1000</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="63">
         <v>1893.2428967314434</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="63">
         <v>1693.9971719168091</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="64">
         <v>1389.4602889634812</v>
       </c>
     </row>
